--- a/diskrit2/Book1.xlsx
+++ b/diskrit2/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Dika\tugasKuliah\s2\diskrit2\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Dika\tugasKuliah\s2\diskrit2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6867EF-9510-4EF5-A3FD-CF02D52B57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8809629-698D-4A73-A5C8-E2F84505C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C8B38B60-B166-450D-9095-C814E1015FD7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
   <si>
     <t>ORDER</t>
   </si>
@@ -45,15 +45,6 @@
     <t>1, 2</t>
   </si>
   <si>
-    <t>3, 6</t>
-  </si>
-  <si>
-    <t>4, 6</t>
-  </si>
-  <si>
-    <t>2, 6</t>
-  </si>
-  <si>
     <t>1, 4</t>
   </si>
   <si>
@@ -84,24 +75,9 @@
     <t>DATASET</t>
   </si>
   <si>
-    <t>1 2</t>
-  </si>
-  <si>
-    <t>1 2 3 4 6</t>
-  </si>
-  <si>
-    <t>1 2 3 4 5 6</t>
-  </si>
-  <si>
     <t>DATASET 2</t>
   </si>
   <si>
-    <t>3 6</t>
-  </si>
-  <si>
-    <t>3 4 6</t>
-  </si>
-  <si>
     <t>MERGE</t>
   </si>
   <si>
@@ -118,13 +94,154 @@
   </si>
   <si>
     <t>0, 3</t>
+  </si>
+  <si>
+    <t>KRUSKAL</t>
+  </si>
+  <si>
+    <t>NEXT AVAILABLE</t>
+  </si>
+  <si>
+    <t>EACH WEIGHT</t>
+  </si>
+  <si>
+    <t>0,3 0,4 1,2 1,4 1,5</t>
+  </si>
+  <si>
+    <t>30, 45, 50, 40, 25</t>
+  </si>
+  <si>
+    <t>30, 45, 50, 40, 15, 20, 55</t>
+  </si>
+  <si>
+    <t>0,3 0,4 1,2 1,4 2,5 3,5 4,5</t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>2 3 5</t>
+  </si>
+  <si>
+    <t>0 1 2 3 5</t>
+  </si>
+  <si>
+    <t>0 1 2 3 4 5</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3 0,4 1,2 1,4 3,5 4,5 2,4 </t>
+  </si>
+  <si>
+    <t>30, 45, 50, 40, 20, 55, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,3 0,4 1,2 1,4 4,5 2,4 </t>
+  </si>
+  <si>
+    <t>30, 45, 50, 40, 55, 35</t>
+  </si>
+  <si>
+    <t>0 1 5</t>
+  </si>
+  <si>
+    <t>0 1 2 5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,4 1,2 1,4 4,5 2,4 </t>
+  </si>
+  <si>
+    <t>45, 50, 40, 55, 35</t>
+  </si>
+  <si>
+    <t>0,4 1,2 1,4 4,5</t>
+  </si>
+  <si>
+    <t>45, 50, 40, 55</t>
+  </si>
+  <si>
+    <t>0,4 1,2 4,5</t>
+  </si>
+  <si>
+    <t>45, 50, 55</t>
+  </si>
+  <si>
+    <t>1,2 4,5</t>
+  </si>
+  <si>
+    <t>50, 55</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>PRIM</t>
+  </si>
+  <si>
+    <t>GRAF SESUAI GEEKS FOR GEEKS</t>
+  </si>
+  <si>
+    <t>GRAF SESUAI SUKMABELAJAR</t>
+  </si>
+  <si>
+    <t>6, 7</t>
+  </si>
+  <si>
+    <t>2, 8</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>7, 8</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>1, 7</t>
+  </si>
+  <si>
+    <t>0, 7</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4, 5, 6, 7, 8</t>
+  </si>
+  <si>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 8</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 5, 8</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 5, 6, 8</t>
+  </si>
+  <si>
+    <t>TOTAL/MST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +271,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +314,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -261,6 +404,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -268,7 +485,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
@@ -277,13 +494,80 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -601,401 +885,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266ACD2E-4E86-4EDA-BA86-ACBA8F138B6C}">
-  <dimension ref="B2:K34"/>
+  <dimension ref="B2:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="16" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="29" width="6" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+    </row>
+    <row r="3" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
+    <row r="5" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>30</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G5" s="4">
         <v>45</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>40</v>
-      </c>
-      <c r="H5" s="4">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>35</v>
+      </c>
       <c r="H7" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>55</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>25</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>55</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="1" t="s">
+    <row r="11" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="M13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="M15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AE15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="J16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="4">
+        <v>10</v>
+      </c>
+      <c r="P16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AE16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="J17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="4">
+        <v>25</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AE17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="4">
         <v>15</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>25</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="P18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AE18" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
         <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>25</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>70</v>
-      </c>
-      <c r="H16" s="4">
-        <v>4</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4">
-        <v>30</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4">
-        <v>70</v>
-      </c>
-      <c r="H17" s="4">
-        <v>4</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4">
-        <v>35</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="4">
-        <v>105</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="4">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>70</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="4">
+        <v>20</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AE19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <v>70</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="M20" s="2">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4">
-        <v>105</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="4">
-        <v>105</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AE20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G21" s="4">
         <v>105</v>
@@ -1004,22 +1470,52 @@
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="2">
+        <v>6</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="4">
+        <v>35</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AE21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4">
-        <v>55</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="4">
         <v>105</v>
@@ -1028,125 +1524,1381 @@
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="M22" s="2">
+        <v>7</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AE22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4">
+        <v>105</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="M23" s="2">
+        <v>8</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AE23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>50</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>105</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="M24" s="2">
+        <v>9</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26">
+        <v>55</v>
+      </c>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AE24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
+      <c r="D25" s="4">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
+        <v>105</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="M25" s="2">
+        <v>10</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AE25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="10">
+        <f>SUM(O16:O25)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
         <v>3</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D31" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
         <v>5</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
         <v>6</v>
       </c>
-      <c r="D29" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+      <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D33" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>9</v>
       </c>
-      <c r="D30" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
-        <v>7</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+    </row>
+    <row r="41" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17">
+        <v>0</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>2</v>
+      </c>
+      <c r="F42" s="17">
+        <v>3</v>
+      </c>
+      <c r="G42" s="17">
+        <v>4</v>
+      </c>
+      <c r="H42" s="17">
+        <v>5</v>
+      </c>
+      <c r="I42" s="17">
+        <v>6</v>
+      </c>
+      <c r="J42" s="17">
+        <v>7</v>
+      </c>
+      <c r="K42" s="17">
         <v>8</v>
       </c>
-      <c r="C32" s="9" t="s">
+    </row>
+    <row r="43" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="17">
+        <v>0</v>
+      </c>
+      <c r="C43" s="33">
+        <v>0</v>
+      </c>
+      <c r="D43" s="33">
+        <v>4</v>
+      </c>
+      <c r="E43" s="33">
+        <v>0</v>
+      </c>
+      <c r="F43" s="33">
+        <v>0</v>
+      </c>
+      <c r="G43" s="33">
+        <v>0</v>
+      </c>
+      <c r="H43" s="33">
+        <v>0</v>
+      </c>
+      <c r="I43" s="33">
+        <v>0</v>
+      </c>
+      <c r="J43" s="33">
+        <v>9</v>
+      </c>
+      <c r="K43" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="17">
+        <v>1</v>
+      </c>
+      <c r="C44" s="33">
+        <v>4</v>
+      </c>
+      <c r="D44" s="33">
+        <v>0</v>
+      </c>
+      <c r="E44" s="33">
         <v>8</v>
       </c>
-      <c r="D32" s="9">
+      <c r="F44" s="33">
+        <v>0</v>
+      </c>
+      <c r="G44" s="33">
+        <v>0</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0</v>
+      </c>
+      <c r="I44" s="33">
+        <v>0</v>
+      </c>
+      <c r="J44" s="33">
+        <v>11</v>
+      </c>
+      <c r="K44" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="17">
+        <v>2</v>
+      </c>
+      <c r="C45" s="33">
+        <v>0</v>
+      </c>
+      <c r="D45" s="33">
+        <v>8</v>
+      </c>
+      <c r="E45" s="33">
+        <v>0</v>
+      </c>
+      <c r="F45" s="33">
+        <v>7</v>
+      </c>
+      <c r="G45" s="33">
+        <v>0</v>
+      </c>
+      <c r="H45" s="33">
+        <v>4</v>
+      </c>
+      <c r="I45" s="33">
+        <v>0</v>
+      </c>
+      <c r="J45" s="33">
+        <v>0</v>
+      </c>
+      <c r="K45" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="17">
+        <v>3</v>
+      </c>
+      <c r="C46" s="33">
+        <v>0</v>
+      </c>
+      <c r="D46" s="33">
+        <v>0</v>
+      </c>
+      <c r="E46" s="33">
+        <v>7</v>
+      </c>
+      <c r="F46" s="33">
+        <v>0</v>
+      </c>
+      <c r="G46" s="33">
+        <v>9</v>
+      </c>
+      <c r="H46" s="33">
+        <v>14</v>
+      </c>
+      <c r="I46" s="33">
+        <v>0</v>
+      </c>
+      <c r="J46" s="33">
+        <v>0</v>
+      </c>
+      <c r="K46" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="17">
+        <v>4</v>
+      </c>
+      <c r="C47" s="33">
+        <v>0</v>
+      </c>
+      <c r="D47" s="33">
+        <v>0</v>
+      </c>
+      <c r="E47" s="33">
+        <v>0</v>
+      </c>
+      <c r="F47" s="33">
+        <v>9</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="33">
+        <v>10</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0</v>
+      </c>
+      <c r="J47" s="33">
+        <v>0</v>
+      </c>
+      <c r="K47" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17">
+        <v>5</v>
+      </c>
+      <c r="C48" s="33">
+        <v>0</v>
+      </c>
+      <c r="D48" s="33">
+        <v>0</v>
+      </c>
+      <c r="E48" s="33">
+        <v>4</v>
+      </c>
+      <c r="F48" s="33">
+        <v>14</v>
+      </c>
+      <c r="G48" s="33">
+        <v>10</v>
+      </c>
+      <c r="H48" s="33">
+        <v>0</v>
+      </c>
+      <c r="I48" s="33">
+        <v>2</v>
+      </c>
+      <c r="J48" s="33">
+        <v>0</v>
+      </c>
+      <c r="K48" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="17">
+        <v>6</v>
+      </c>
+      <c r="C49" s="33">
+        <v>0</v>
+      </c>
+      <c r="D49" s="33">
+        <v>0</v>
+      </c>
+      <c r="E49" s="33">
+        <v>0</v>
+      </c>
+      <c r="F49" s="33">
+        <v>0</v>
+      </c>
+      <c r="G49" s="33">
+        <v>0</v>
+      </c>
+      <c r="H49" s="33">
+        <v>2</v>
+      </c>
+      <c r="I49" s="33">
+        <v>0</v>
+      </c>
+      <c r="J49" s="33">
+        <v>1</v>
+      </c>
+      <c r="K49" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="17">
+        <v>7</v>
+      </c>
+      <c r="C50" s="33">
+        <v>9</v>
+      </c>
+      <c r="D50" s="33">
+        <v>11</v>
+      </c>
+      <c r="E50" s="33">
+        <v>0</v>
+      </c>
+      <c r="F50" s="33">
+        <v>0</v>
+      </c>
+      <c r="G50" s="33">
+        <v>0</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0</v>
+      </c>
+      <c r="I50" s="33">
+        <v>1</v>
+      </c>
+      <c r="J50" s="33">
+        <v>0</v>
+      </c>
+      <c r="K50" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="17">
+        <v>8</v>
+      </c>
+      <c r="C51" s="33">
+        <v>0</v>
+      </c>
+      <c r="D51" s="33">
+        <v>0</v>
+      </c>
+      <c r="E51" s="33">
+        <v>2</v>
+      </c>
+      <c r="F51" s="33">
+        <v>0</v>
+      </c>
+      <c r="G51" s="33">
+        <v>0</v>
+      </c>
+      <c r="H51" s="33">
+        <v>0</v>
+      </c>
+      <c r="I51" s="33">
+        <v>6</v>
+      </c>
+      <c r="J51" s="33">
+        <v>7</v>
+      </c>
+      <c r="K51" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="23"/>
+      <c r="O53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AE53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M54" s="5">
+        <v>1</v>
+      </c>
+      <c r="N54" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="O54" s="9">
+        <v>4</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9">
         <v>9</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="X54" s="9">
+        <v>8</v>
+      </c>
+      <c r="Y54" s="9">
+        <v>11</v>
+      </c>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AE54" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M55" s="5">
+        <v>2</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" s="9">
+        <v>8</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9">
+        <v>9</v>
+      </c>
+      <c r="X55" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y55" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AE55" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M56" s="5">
+        <v>3</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O56" s="9">
+        <v>2</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U56" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9">
+        <v>9</v>
+      </c>
+      <c r="X56" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>6</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC56" s="9"/>
+      <c r="AE56" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="5">
+        <v>4</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="9">
+        <v>4</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="9">
+        <v>9</v>
+      </c>
+      <c r="X57" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>7</v>
+      </c>
+      <c r="AB57" s="9">
         <v>10</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="AC57" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE57" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M58" s="5">
+        <v>5</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="9">
+        <v>2</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T58" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
+      <c r="U58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="W58" s="9">
+        <v>9</v>
+      </c>
+      <c r="X58" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>10</v>
+      </c>
+      <c r="AC58" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M59" s="5">
+        <v>6</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O59" s="9">
+        <v>1</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S59" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9">
+        <v>9</v>
+      </c>
+      <c r="X59" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>7</v>
+      </c>
+      <c r="AB59" s="9">
+        <v>10</v>
+      </c>
+      <c r="AC59" s="9"/>
+      <c r="AE59" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="5">
+        <v>7</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9">
+        <v>9</v>
+      </c>
+      <c r="X60" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AE60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M61" s="5">
+        <v>8</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O61" s="9">
+        <v>7</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9">
+        <v>9</v>
+      </c>
+      <c r="X61" s="9">
+        <v>11</v>
+      </c>
+      <c r="Y61" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z61" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="9">
+        <v>9</v>
+      </c>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AE61" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M62" s="5">
+        <v>9</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O62" s="9">
+        <v>9</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="R62" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S62" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20">
+        <v>9</v>
+      </c>
+      <c r="X62" s="20">
+        <v>11</v>
+      </c>
+      <c r="Y62" s="20">
+        <v>7</v>
+      </c>
+      <c r="Z62" s="20">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AE62" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M63" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" s="32"/>
+      <c r="O63" s="19">
+        <f>SUM(O54:O62)</f>
+        <v>37</v>
+      </c>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AE63" s="21"/>
+    </row>
+    <row r="64" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M66" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" s="23"/>
+      <c r="O66" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="18">
+        <v>1</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M68" s="18">
+        <v>2</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O68" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M69" s="18">
+        <v>3</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O69" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M70" s="18">
+        <v>4</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M71" s="18">
+        <v>5</v>
+      </c>
+      <c r="N71" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M72" s="18">
+        <v>6</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O72" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M73" s="18">
+        <v>7</v>
+      </c>
+      <c r="N73" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O73" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M74" s="18">
+        <v>8</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O74" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M75" s="18">
+        <v>9</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M76" s="18">
+        <v>10</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M77" s="18">
+        <v>11</v>
+      </c>
+      <c r="N77" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O77" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M78" s="18">
+        <v>12</v>
+      </c>
+      <c r="N78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M79" s="18">
+        <v>13</v>
+      </c>
+      <c r="N79" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O79" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="13:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M80" s="18">
+        <v>14</v>
+      </c>
+      <c r="N80" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="34">
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M13:AE13"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B39:AE39"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P53:V53"/>
+    <mergeCell ref="W53:AC53"/>
+    <mergeCell ref="P22:V22"/>
+    <mergeCell ref="P23:V23"/>
+    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="P25:V25"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="P17:V17"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="P19:V19"/>
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="P21:V21"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="P16:V16"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>